--- a/biology/Botanique/Code_international_pour_la_nomenclature_des_plantes_cultivées/Code_international_pour_la_nomenclature_des_plantes_cultivées.xlsx
+++ b/biology/Botanique/Code_international_pour_la_nomenclature_des_plantes_cultivées/Code_international_pour_la_nomenclature_des_plantes_cultivées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Code_international_pour_la_nomenclature_des_plantes_cultiv%C3%A9es</t>
+          <t>Code_international_pour_la_nomenclature_des_plantes_cultivées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Code international pour la nomenclature des plantes cultivées (CINPC) règlemente la désignation des espèces cultivées, dont les cultigènes, constituées de cultivars, de groupes de cultivars et de chimères de greffe (en). 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Code_international_pour_la_nomenclature_des_plantes_cultiv%C3%A9es</t>
+          <t>Code_international_pour_la_nomenclature_des_plantes_cultivées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Clematis alpina ‘Ruby’ : cultivar d'une espèce.
 Spiraea ×bumalda ‘Anthony Waterer’ : cultivar obtenu par hybridation entre individus du même genre (ici du genre Spiraea)
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Code_international_pour_la_nomenclature_des_plantes_cultiv%C3%A9es</t>
+          <t>Code_international_pour_la_nomenclature_des_plantes_cultivées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Résumé des règles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Code définit strictement le terme cultivar, de manière qu'il n'y ait aucun doute sur la qualification d'une nouvelle obtention en tant que cultivar, et consacre plusieurs des premiers articles à cette définition.
 La construction d'un nom de cultivar présente plusieurs différences avec le Code de botanique, par exemple, sauf exceptions, on doit utiliser des langues vernaculaires, et non pas le latin[a],
